--- a/Lab_9_RNASeq/Sample_Tracking.xlsx
+++ b/Lab_9_RNASeq/Sample_Tracking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/GIT/biochem3BP3-2018-dev/Lab_9_RNASeq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/GIT/Biochem-3BP3/Lab_9_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93FCE6E-65E6-B045-8543-237B399DA21B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4E66F-478F-824B-818F-CC581CCC52B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="27740" windowHeight="17040" xr2:uid="{BFF91826-12EB-7A42-9EE6-8EDB767B1A04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>HLE Treatment</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>htseq-count Box</t>
-  </si>
-  <si>
-    <t>FASTQ Interlacer Pairs</t>
-  </si>
-  <si>
-    <t>FASTQ De-Interlacer Mates</t>
   </si>
 </sst>
 </file>
@@ -452,22 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F72BDA-FA0C-4C4D-995D-7744CAB5DE14}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="14" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -487,19 +481,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -518,10 +506,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -540,10 +526,8 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -562,10 +546,8 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -584,10 +566,8 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -606,10 +586,8 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -628,10 +606,8 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -650,10 +626,8 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -672,10 +646,8 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,10 +666,8 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -716,10 +686,8 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -738,10 +706,8 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -760,8 +726,6 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab_9_RNASeq/Sample_Tracking.xlsx
+++ b/Lab_9_RNASeq/Sample_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcarthur/GIT/Biochem-3BP3/Lab_9_RNASeq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4E66F-478F-824B-818F-CC581CCC52B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C1CA21-7EFC-E548-8D2C-F6720A3C18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="960" windowWidth="27740" windowHeight="17040" xr2:uid="{BFF91826-12EB-7A42-9EE6-8EDB767B1A04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>HLE Treatment</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>htseq-count Box</t>
+  </si>
+  <si>
+    <t># assembled transcripts</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,7 +464,7 @@
     <col min="7" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,6 +488,9 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
